--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -78,9 +78,6 @@
     <t>reportTotalWeek</t>
   </si>
   <si>
-    <t>//div[@class='headSec']/table/tbody/tr[1]/th</t>
-  </si>
-  <si>
     <t>//div[@class='headSec']/table/tbody/tr[2]/th</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>//div[@class='clear']/table/tbody/tr/td[1]</t>
+  </si>
+  <si>
+    <t>//div[@class='headSec']/table/tbody/tr/th</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -520,10 +520,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>

--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>storeHeader</t>
   </si>
@@ -78,15 +78,9 @@
     <t>reportTotalWeek</t>
   </si>
   <si>
-    <t>//div[@class='headSec']/table/tbody/tr[2]/th</t>
-  </si>
-  <si>
     <t>storeWeekreportHeader1</t>
   </si>
   <si>
-    <t>storeWeekreportHeader2</t>
-  </si>
-  <si>
     <t>//td[@class='rnshade boldin']//strong</t>
   </si>
   <si>
@@ -97,6 +91,39 @@
   </si>
   <si>
     <t>//div[@class='headSec']/table/tbody/tr/th</t>
+  </si>
+  <si>
+    <t>//table[@class='table-layout daypart noBord']/tbody/tr[2]</t>
+  </si>
+  <si>
+    <t>averageTimeHeaderList</t>
+  </si>
+  <si>
+    <t>availableGroupStores</t>
+  </si>
+  <si>
+    <t>(//div[@class='col-xs-12 new-groups'])[1]/ul/li</t>
+  </si>
+  <si>
+    <t>availableGroupStores2</t>
+  </si>
+  <si>
+    <t>(//div[@class='col-xs-12 new-groups'])[2]/ul/li</t>
+  </si>
+  <si>
+    <t>AvailableAllStoresCheckBox</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>//div[@class='col-xs-12 new-groups']/ul/li/label/input</t>
+  </si>
+  <si>
+    <t>//div[@class='grouphierarchy-tree jumbotron']/div/ul/li</t>
+  </si>
+  <si>
+    <t>grouphierarchy-tree</t>
   </si>
 </sst>
 </file>
@@ -428,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +539,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -520,10 +547,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -531,10 +558,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -542,12 +569,56 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>storeHeader</t>
   </si>
@@ -60,15 +60,9 @@
     <t>reportStoreCB</t>
   </si>
   <si>
-    <t>(//table[@class='genList']//tbody/tr/td[1])/input</t>
-  </si>
-  <si>
     <t>Checkbox</t>
   </si>
   <si>
-    <t>//div[@class='clear']/table/tbody/tr[2]/th</t>
-  </si>
-  <si>
     <t>reportColumnHeaderList</t>
   </si>
   <si>
@@ -81,21 +75,9 @@
     <t>storeWeekreportHeader1</t>
   </si>
   <si>
-    <t>//td[@class='rnshade boldin']//strong</t>
-  </si>
-  <si>
     <t>storeNamesList</t>
   </si>
   <si>
-    <t>//div[@class='clear']/table/tbody/tr/td[1]</t>
-  </si>
-  <si>
-    <t>//div[@class='headSec']/table/tbody/tr/th</t>
-  </si>
-  <si>
-    <t>//table[@class='table-layout daypart noBord']/tbody/tr[2]</t>
-  </si>
-  <si>
     <t>averageTimeHeaderList</t>
   </si>
   <si>
@@ -124,6 +106,45 @@
   </si>
   <si>
     <t>grouphierarchy-tree</t>
+  </si>
+  <si>
+    <t>//div[@class='saved-reports']/ul/li/span[2]</t>
+  </si>
+  <si>
+    <t>//div[@class='saved-reports']/ul/li/span[2][contains(@class,'checked')]</t>
+  </si>
+  <si>
+    <t>SummaryReportCheckBoxChecked</t>
+  </si>
+  <si>
+    <t>List of Checkbox</t>
+  </si>
+  <si>
+    <t>//table[@class='summaryreport-table']/tbody/tr/td[2]</t>
+  </si>
+  <si>
+    <t>//div[@class='col-md-12 storeWrap']/span</t>
+  </si>
+  <si>
+    <t>CriteriaStoreList</t>
+  </si>
+  <si>
+    <t>(//table[@class='summaryreport-table'])[1]//tr[2]/th[@class!="reporttable-attributes-heading-dynamic hide-table-cell"]</t>
+  </si>
+  <si>
+    <t>(//table[@class='summaryreport-table'])[1]//tr</t>
+  </si>
+  <si>
+    <t>//table[@class='rawcar-header-labels clear']/tbody/tr/th</t>
+  </si>
+  <si>
+    <t>//table[@class='summaryreport-table']/tbody/tr[2]/th[@class='reportTableAttributesHeading' or @class='reporttable-attributes-heading-dynamic show-table-cell' ]</t>
+  </si>
+  <si>
+    <t>//div[@class='ctable']/table/tbody/tr[@class='tdata clear']</t>
+  </si>
+  <si>
+    <t>StoresListOnStoresPage</t>
   </si>
 </sst>
 </file>
@@ -455,16 +476,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="111.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,40 +538,40 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -558,10 +579,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -569,57 +590,90 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>storeHeader</t>
   </si>
@@ -145,6 +145,48 @@
   </si>
   <si>
     <t>StoresListOnStoresPage</t>
+  </si>
+  <si>
+    <t>goalStatisticsData</t>
+  </si>
+  <si>
+    <t>//div[@class='systemSec']/table/tbody/tr/td[1]</t>
+  </si>
+  <si>
+    <t>rolesList</t>
+  </si>
+  <si>
+    <t>//div[@class='ctable']/table/tbody/tr/td[2]</t>
+  </si>
+  <si>
+    <t>userList</t>
+  </si>
+  <si>
+    <t>//table/tbody/tr/td[2]</t>
+  </si>
+  <si>
+    <t>viewEditButtonList</t>
+  </si>
+  <si>
+    <t>//a[text()='View/Edit']</t>
+  </si>
+  <si>
+    <t>admin_storeDetails_Labels</t>
+  </si>
+  <si>
+    <t>//table[@class='user_form']/tbody/tr/th/label</t>
+  </si>
+  <si>
+    <t>admin_storeDetails_Input</t>
+  </si>
+  <si>
+    <t>//table[@class='user_form']/tbody/tr/td/input</t>
+  </si>
+  <si>
+    <t>userStoreList</t>
+  </si>
+  <si>
+    <t>//div[@class='ctable']/table/tbody/tr/td[4]</t>
   </si>
 </sst>
 </file>
@@ -476,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +718,83 @@
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>storeHeader</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>//div[@class='ctable']/table/tbody/tr/td[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List </t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +798,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>storeHeader</t>
   </si>
@@ -123,9 +123,6 @@
     <t>//table[@class='summaryreport-table']/tbody/tr/td[2]</t>
   </si>
   <si>
-    <t>//div[@class='col-md-12 storeWrap']/span</t>
-  </si>
-  <si>
     <t>CriteriaStoreList</t>
   </si>
   <si>
@@ -190,6 +187,27 @@
   </si>
   <si>
     <t xml:space="preserve">List </t>
+  </si>
+  <si>
+    <t>//div[@class='storesTooltip ']/span</t>
+  </si>
+  <si>
+    <t>//span[@class='StoreTitile level-0']</t>
+  </si>
+  <si>
+    <t>reportpageStoreList</t>
+  </si>
+  <si>
+    <t>//div[@class='saved-reports']/ul/li[6]/span/span/div/span[1]</t>
+  </si>
+  <si>
+    <t>storeList</t>
+  </si>
+  <si>
+    <t>oldXpath</t>
+  </si>
+  <si>
+    <t>//table[@class='summaryreport-table']/tbody/tr[2]/th[@class='reporttable-attributes-heading-dynamic ' or @class='reportTableAttributesHeading5' or @class='reportTableAttributesHeading5 total-cars']</t>
   </si>
 </sst>
 </file>
@@ -521,20 +539,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="185.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="150.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -544,8 +563,11 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -578,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -589,51 +611,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -644,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -655,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -666,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -677,7 +702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -688,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -699,12 +724,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -712,10 +737,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -723,10 +748,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -734,10 +759,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -745,10 +770,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -756,10 +781,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -767,10 +792,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -778,10 +803,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -789,10 +814,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -800,13 +825,35 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
